--- a/data/field_observations/groundwater/subdaily_loggers/groundwater_logger_times.xlsx
+++ b/data/field_observations/groundwater/subdaily_loggers/groundwater_logger_times.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jnat/Documents/GitHub/sagehen_meadows/data/field_observations/groundwater/subdaily_loggers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B84FEE74-1EB4-EB43-9439-EFCD986462C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{64FE734A-9B90-0149-B8DE-3DD5F935AB5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10480" yWindow="460" windowWidth="17280" windowHeight="20220"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="24440" windowHeight="20220"/>
   </bookViews>
   <sheets>
     <sheet name="groundwater_logger_times" sheetId="1" r:id="rId1"/>
@@ -20,26 +20,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="66">
   <si>
     <t>KER-1</t>
   </si>
   <si>
-    <t>source 2018-19 Black p 21</t>
+    <t>Y</t>
   </si>
   <si>
     <t>KWR-1</t>
   </si>
   <si>
-    <t>From top knot at sensor to well, need to add sensor length; source 2018-19 Black p 21</t>
-  </si>
-  <si>
     <t>KHT-XE5S</t>
   </si>
   <si>
-    <t>Sensor depth noted as "not accurate"; source 2018-19 Black p 21</t>
-  </si>
-  <si>
     <t>KWT-1</t>
   </si>
   <si>
@@ -64,9 +58,6 @@
     <t>EEF-1</t>
   </si>
   <si>
-    <t>10/05/2019 notes on "current" logger deployment; source 2015-19 Orange p130</t>
-  </si>
-  <si>
     <t>EWF-XA2S</t>
   </si>
   <si>
@@ -97,24 +88,12 @@
     <t>KHT-XE4S</t>
   </si>
   <si>
-    <t>see 2018-19 Black p 38</t>
-  </si>
-  <si>
     <t>KHF-1</t>
   </si>
   <si>
-    <t>see 2018-19 Black p 53</t>
-  </si>
-  <si>
-    <t>around 09/03/2019, may have had no water, as indicated by temp; any manual readings around then?</t>
-  </si>
-  <si>
     <t>mark on logger erased; source 2015-19 Orange p140; ??also see 2018-19 Black p 44??</t>
   </si>
   <si>
-    <t>why are there separate files for 0602_0618 (csv) and 0618_0902 (xlsx); combine if they're continuous.</t>
-  </si>
-  <si>
     <t>source 2015-19 Orange p140</t>
   </si>
   <si>
@@ -130,15 +109,9 @@
     <t>5 cm ice chunk attached to cord, left sensor running for 16 min; source 2015-19 Orange p140</t>
   </si>
   <si>
-    <t>"loose"; source 2015-19 Orange p140</t>
-  </si>
-  <si>
     <t>mud at bottom, need to flush well?</t>
   </si>
   <si>
-    <t>LHR-1</t>
-  </si>
-  <si>
     <t>notes</t>
   </si>
   <si>
@@ -157,19 +130,94 @@
     <t>end</t>
   </si>
   <si>
-    <t>wrong file, from sensor 5 on different dates</t>
-  </si>
-  <si>
     <t>temp_threshold</t>
   </si>
   <si>
-    <t>FIX NEEDED: script overcutting due to anomaly in temp data in mid-June; barometer was deployed here; source 2015-19 Orange p140</t>
-  </si>
-  <si>
     <t>start was 6/18/19 13:50 but changed to cutoff first entry</t>
   </si>
   <si>
-    <t>changed stop time, was 10/1/18 14:00</t>
+    <t>in plot, odd split in data on Jun 20; 10/05/2019 notes on "current" logger deployment; source 2015-19 Orange p130</t>
+  </si>
+  <si>
+    <t>plot?</t>
+  </si>
+  <si>
+    <t>in plot, odd split in data around Sept 15</t>
+  </si>
+  <si>
+    <t>plot rvw?</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>in plot, last 10-20 readings bomb out; "loose"; source 2015-19 Orange p140</t>
+  </si>
+  <si>
+    <t>in plot, odd jump in data around Oct 10</t>
+  </si>
+  <si>
+    <t>in plot, odd jump around Sept 15</t>
+  </si>
+  <si>
+    <t>in plot, odd jump on July 20 (i sbaro adjustment correct?); source 2018-19 Black p 23</t>
+  </si>
+  <si>
+    <t>in plot, seems to bottom out around 08/10/2019; accord to temp plot, around 09/03/2019, may have had no water; any manual readings around then?</t>
+  </si>
+  <si>
+    <t>in plot, odd high/low in data on 07/18/2019; source 2018-19 Black p 23</t>
+  </si>
+  <si>
+    <t>in plot, odd jump around 09/16-17/2018; see 2018-19 Black p 38</t>
+  </si>
+  <si>
+    <t>in plot, odd jump around 06/17/2019; see 2018-19 Black p 53</t>
+  </si>
+  <si>
+    <t>in plot, add jumps around mid-Sep, early Oct, late Nov;</t>
+  </si>
+  <si>
+    <t>in plot, earliest ~20 points look oddly rising, probably need to cut more; see 2018-19 Black p 23</t>
+  </si>
+  <si>
+    <t>in plot, earliest ~10 points too low, may need to be cut; see 2018-19 Black p 23</t>
+  </si>
+  <si>
+    <t>in plot, oddly jumps on 06/17; why are there separate files for 0602_0618 (csv) and 0618_0902 (xlsx); combine if they're continuous.</t>
+  </si>
+  <si>
+    <t>in plot, did water bottom out in mid-Aug to mid-Sept, check manual measurements; source 2015-19 Orange p140</t>
+  </si>
+  <si>
+    <t>in plot, odd sudden jumps in data on daily basis, but only by 1 cm;</t>
+  </si>
+  <si>
+    <t>in plot, first 10-20 points dropping from much higher point, possibly needs earlier cutoff; changed stop time, was 10/1/18 14:00</t>
+  </si>
+  <si>
+    <t>in plot, odd jump around 09/16-17 2018;</t>
+  </si>
+  <si>
+    <t>in plot, a single odd point around 08/17/19; FIX NEEDED: script overcutting due to anomaly in temp data in mid-June; barometer was deployed here; source 2015-19 Orange p140</t>
+  </si>
+  <si>
+    <t>FIX: need baro data for 07/15-17 in 2018; source 2018-19 Black p 21</t>
+  </si>
+  <si>
+    <t>FIX: need baro data for 07/15-17 in 2018; From top knot at sensor to well, need to add sensor length; source 2018-19 Black p 21</t>
+  </si>
+  <si>
+    <t>FIX: need baro data for 07/15-17 in 2018; Sensor depth noted as "not accurate"; source 2018-19 Black p 21</t>
+  </si>
+  <si>
+    <t>wrong/lost file, from sensor 5 on different dates</t>
+  </si>
+  <si>
+    <t>FIX: why not plotted?</t>
+  </si>
+  <si>
+    <t>LHT-1</t>
   </si>
 </sst>
 </file>
@@ -179,7 +227,7 @@
   <numFmts count="1">
     <numFmt numFmtId="170" formatCode="0.000"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -324,6 +372,19 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -699,7 +760,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -764,6 +825,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1119,10 +1196,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G54"/>
+  <dimension ref="A2:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1131,78 +1208,92 @@
     <col min="4" max="4" width="14.83203125" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" customWidth="1"/>
     <col min="6" max="6" width="25.83203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="7" style="8" customWidth="1"/>
+    <col min="8" max="8" width="9" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3">
+      <c r="I2" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="37">
+        <v>6</v>
+      </c>
+      <c r="B3" s="38">
+        <v>2092350</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="39">
+        <v>43296.598611111112</v>
+      </c>
+      <c r="E3" s="39">
+        <v>43298.574999999997</v>
+      </c>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="36"/>
+      <c r="I3" s="38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4">
         <v>2092351</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D4" s="1">
         <v>43296.604166666664</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E4" s="1">
         <v>43298.587500000001</v>
       </c>
-      <c r="F3" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27">
-        <v>2</v>
-      </c>
-      <c r="B4" s="28">
-        <v>2092352</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="29">
-        <v>43296.661111111112</v>
-      </c>
-      <c r="E4" s="29">
-        <v>43298.6</v>
-      </c>
-      <c r="F4" s="30">
-        <v>0.4</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F4" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -1210,7 +1301,7 @@
         <v>2092161</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1">
         <v>43296.616666666669</v>
@@ -1221,11 +1312,14 @@
       <c r="F5" s="8">
         <v>0.5</v>
       </c>
-      <c r="G5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -1233,7 +1327,7 @@
         <v>2091639</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1">
         <v>43296.631944444445</v>
@@ -1244,11 +1338,14 @@
       <c r="F6" s="8">
         <v>0.5</v>
       </c>
-      <c r="G6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27">
         <v>5</v>
       </c>
@@ -1256,7 +1353,7 @@
         <v>2092377</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7" s="29">
         <v>43296.647916666669</v>
@@ -1267,124 +1364,148 @@
       <c r="F7" s="30">
         <v>1</v>
       </c>
-      <c r="G7" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>6</v>
-      </c>
-      <c r="B8" s="6">
-        <v>2092350</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="7">
-        <v>43296.598611111112</v>
-      </c>
-      <c r="E8" s="7">
-        <v>43298.574999999997</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G7" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="30"/>
+      <c r="I7" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27">
+        <v>2</v>
+      </c>
+      <c r="B8" s="28">
+        <v>2092352</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="29">
+        <v>43296.661111111112</v>
+      </c>
+      <c r="E8" s="29">
+        <v>43298.6</v>
+      </c>
+      <c r="F8" s="30">
+        <v>0.4</v>
+      </c>
+      <c r="G8" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="30"/>
+      <c r="I8" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>2092351</v>
+        <v>2092352</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="1">
-        <v>43298.708333333336</v>
+        <v>43374.625</v>
       </c>
       <c r="E9" s="1">
-        <v>43306.451388888891</v>
+        <v>43423.513888888891</v>
       </c>
       <c r="F9" s="8">
         <v>0.5</v>
       </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="G9" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>3</v>
+      </c>
+      <c r="B10" s="6">
+        <v>2092161</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B10">
-        <v>2092352</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="1">
-        <v>43298.708333333336</v>
-      </c>
-      <c r="E10" s="1">
-        <v>43306.458333333336</v>
-      </c>
-      <c r="F10" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="G10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D10" s="7">
+        <v>43374.625</v>
+      </c>
+      <c r="E10" s="7">
+        <v>43423.513888888891</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="G10" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>2092161</v>
+        <v>2092351</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1">
-        <v>43298.708333333336</v>
+        <v>43672.503472222219</v>
       </c>
       <c r="E11" s="1">
-        <v>43306.458333333336</v>
+        <v>43742.722222222219</v>
       </c>
       <c r="F11" s="8">
         <v>0.5</v>
       </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="G11" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="14">
         <v>4</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="15">
         <v>2091639</v>
       </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1">
-        <v>43298.708333333336</v>
-      </c>
-      <c r="E12" s="1">
-        <v>43306.465277777781</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="G12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C12" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="16">
+        <v>43711.530555555553</v>
+      </c>
+      <c r="E12" s="16">
+        <v>43758.477083333331</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="G12" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>5</v>
       </c>
@@ -1392,183 +1513,226 @@
         <v>2092377</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1">
+        <v>43729.631944444445</v>
+      </c>
+      <c r="E13" s="1">
+        <v>43742.727777777778</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>2092351</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="1">
+        <v>43743.5</v>
+      </c>
+      <c r="E14" s="1">
+        <v>43758.384027777778</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
+        <v>4</v>
+      </c>
+      <c r="B15" s="11">
+        <v>2091639</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="12">
+        <v>43308.625</v>
+      </c>
+      <c r="E15" s="12">
+        <v>43336.513888888891</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="G15" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>2091639</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1">
         <v>43298.708333333336</v>
       </c>
-      <c r="E13" s="1">
-        <v>43306.458333333336</v>
-      </c>
-      <c r="F13" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="G13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
-        <v>6</v>
-      </c>
-      <c r="B14" s="6">
-        <v>2092350</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="7">
-        <v>43298.708333333336</v>
-      </c>
-      <c r="E14" s="7">
+      <c r="E16" s="1">
         <v>43306.465277777781</v>
       </c>
-      <c r="F14" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>1</v>
-      </c>
-      <c r="B15">
+      <c r="F16" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>2091639</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1">
+        <v>43338.75</v>
+      </c>
+      <c r="E17" s="1">
+        <v>43423.527777777781</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="22">
+        <v>2</v>
+      </c>
+      <c r="B18" s="23">
+        <v>2092352</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="24">
+        <v>43729.631944444445</v>
+      </c>
+      <c r="E18" s="24">
+        <v>43758.624305555553</v>
+      </c>
+      <c r="F18" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="G18" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>1</v>
+      </c>
+      <c r="B19">
         <v>2092351</v>
-      </c>
-      <c r="C15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>43306.520833333336</v>
-      </c>
-      <c r="E15" s="1">
-        <v>43308.520833333336</v>
-      </c>
-      <c r="F15" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="G15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14">
-        <v>2</v>
-      </c>
-      <c r="B16" s="15">
-        <v>2092352</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="16">
-        <v>43306.520833333336</v>
-      </c>
-      <c r="E16" s="16">
-        <v>43308.520833333336</v>
-      </c>
-      <c r="F16" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>3</v>
-      </c>
-      <c r="B17">
-        <v>2092161</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="1">
-        <v>43306.520833333336</v>
-      </c>
-      <c r="E17" s="1">
-        <v>43308.520833333336</v>
-      </c>
-      <c r="F17" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="G17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="14">
-        <v>4</v>
-      </c>
-      <c r="B18" s="15">
-        <v>2091639</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="16">
-        <v>43306.520833333336</v>
-      </c>
-      <c r="E18" s="16">
-        <v>43308.520833333336</v>
-      </c>
-      <c r="F18" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>5</v>
-      </c>
-      <c r="B19">
-        <v>2092377</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="1">
-        <v>43306.520833333336</v>
+        <v>43298.708333333336</v>
       </c>
       <c r="E19" s="1">
-        <v>43308.520833333336</v>
+        <v>43306.451388888891</v>
       </c>
       <c r="F19" s="8">
         <v>0.5</v>
       </c>
-      <c r="G19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
-        <v>6</v>
-      </c>
-      <c r="B20" s="6">
-        <v>2092350</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="G19" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="7">
-        <v>43306.520833333336</v>
-      </c>
-      <c r="E20" s="7">
-        <v>43308.520833333336</v>
-      </c>
-      <c r="F20" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>2092351</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1">
+        <v>43308.625</v>
+      </c>
+      <c r="E20" s="1">
+        <v>43336.493055555555</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="G20" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>1</v>
       </c>
@@ -1576,45 +1740,57 @@
         <v>2092351</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D21" s="1">
-        <v>43308.625</v>
+        <v>43338.75</v>
       </c>
       <c r="E21" s="1">
-        <v>43336.493055555555</v>
+        <v>43423.520833333336</v>
       </c>
       <c r="F21" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="G21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="10">
-        <v>2</v>
-      </c>
-      <c r="B22" s="11">
-        <v>2092352</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="12">
-        <v>43308.625</v>
-      </c>
-      <c r="E22" s="12">
-        <v>43336.493055555555</v>
-      </c>
-      <c r="F22" s="13">
-        <v>0.01</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>6</v>
+      </c>
+      <c r="B22" s="33">
+        <v>2092350</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="34">
+        <v>43298.708333333336</v>
+      </c>
+      <c r="E22" s="34">
+        <v>43306.465277777781</v>
+      </c>
+      <c r="F22" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="G22" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>3</v>
       </c>
@@ -1622,7 +1798,7 @@
         <v>2092161</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D23" s="1">
         <v>43308.625</v>
@@ -1633,203 +1809,278 @@
       <c r="F23" s="8">
         <v>0.1</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>2092350</v>
+      </c>
+      <c r="C24" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="10">
-        <v>4</v>
-      </c>
-      <c r="B24" s="11">
-        <v>2091639</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="12">
+      <c r="D24" s="1">
         <v>43308.625</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="1">
         <v>43336.513888888891</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="G24" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>2092350</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="1">
+        <v>43338.75</v>
+      </c>
+      <c r="E25" s="1">
+        <v>43423.534722222219</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="G25" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>2092161</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="1">
+        <v>43298.708333333336</v>
+      </c>
+      <c r="E26" s="1">
+        <v>43306.458333333336</v>
+      </c>
+      <c r="F26" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G26" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>2092352</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="1">
+        <v>43618.5</v>
+      </c>
+      <c r="E27" s="2">
+        <v>43728.999305555553</v>
+      </c>
+      <c r="F27" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G27" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>2092377</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="1">
+        <v>43298.708333333336</v>
+      </c>
+      <c r="E28" s="1">
+        <v>43306.458333333336</v>
+      </c>
+      <c r="F28" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G28" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>2092352</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="1">
+        <v>43298.708333333336</v>
+      </c>
+      <c r="E29" s="1">
+        <v>43306.458333333336</v>
+      </c>
+      <c r="F29" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G29" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="10">
+        <v>2</v>
+      </c>
+      <c r="B30" s="11">
+        <v>2092352</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="12">
+        <v>43308.625</v>
+      </c>
+      <c r="E30" s="12">
+        <v>43336.493055555555</v>
+      </c>
+      <c r="F30" s="13">
         <v>0.01</v>
       </c>
-      <c r="G24" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
+      <c r="G30" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>2092352</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="1">
+        <v>43338.75</v>
+      </c>
+      <c r="E31" s="1">
+        <v>43372.525694444441</v>
+      </c>
+      <c r="F31" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="G31" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
         <v>5</v>
       </c>
-      <c r="B25">
+      <c r="B32">
         <v>2092377</v>
       </c>
-      <c r="C25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="1">
         <v>43308.625</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E32" s="1">
         <v>43336.513888888891</v>
       </c>
-      <c r="F25" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="G25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
-        <v>6</v>
-      </c>
-      <c r="B26">
-        <v>2092350</v>
-      </c>
-      <c r="C26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="1">
-        <v>43308.625</v>
-      </c>
-      <c r="E26" s="1">
-        <v>43336.513888888891</v>
-      </c>
-      <c r="F26" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="G26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
-        <v>1</v>
-      </c>
-      <c r="B27">
-        <v>2092351</v>
-      </c>
-      <c r="C27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1">
-        <v>43336.604166666664</v>
-      </c>
-      <c r="E27" s="1">
-        <v>43338.604166666664</v>
-      </c>
-      <c r="F27" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="G27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
-        <v>2</v>
-      </c>
-      <c r="B28">
-        <v>2092352</v>
-      </c>
-      <c r="C28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="1">
-        <v>43336.604166666664</v>
-      </c>
-      <c r="E28" s="1">
-        <v>43338.604166666664</v>
-      </c>
-      <c r="F28" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
-        <v>3</v>
-      </c>
-      <c r="B29">
-        <v>2092161</v>
-      </c>
-      <c r="C29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="1">
-        <v>43336.604166666664</v>
-      </c>
-      <c r="E29" s="1">
-        <v>43338.604166666664</v>
-      </c>
-      <c r="F29" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
-        <v>4</v>
-      </c>
-      <c r="B30">
-        <v>2091639</v>
-      </c>
-      <c r="C30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="1">
-        <v>43336.604166666664</v>
-      </c>
-      <c r="E30" s="1">
-        <v>43338.604166666664</v>
-      </c>
-      <c r="F30" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
-        <v>5</v>
-      </c>
-      <c r="B31">
-        <v>2092377</v>
-      </c>
-      <c r="C31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="1">
-        <v>43336.604166666664</v>
-      </c>
-      <c r="E31" s="1">
-        <v>43338.604166666664</v>
-      </c>
-      <c r="F31" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
-        <v>6</v>
-      </c>
-      <c r="B32" s="6">
-        <v>2092350</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="7">
-        <v>43336.604166666664</v>
-      </c>
-      <c r="E32" s="7">
-        <v>43338.604166666664</v>
-      </c>
-      <c r="F32" s="9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F32" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G32" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>1</v>
       </c>
@@ -1837,82 +2088,112 @@
         <v>2092351</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D33" s="1">
-        <v>43338.75</v>
+        <v>43618.443749999999</v>
       </c>
       <c r="E33" s="1">
-        <v>43423.520833333336</v>
+        <v>43672.494444444441</v>
       </c>
       <c r="F33" s="8">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G33" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B34">
-        <v>2092352</v>
+        <v>2092377</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D34" s="1">
-        <v>43338.75</v>
+        <v>43306.520833333336</v>
       </c>
       <c r="E34" s="1">
-        <v>43372.525694444441</v>
+        <v>43308.520833333336</v>
       </c>
       <c r="F34" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G34" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>2092377</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="1">
+        <v>43336.604166666664</v>
+      </c>
+      <c r="E35" s="1">
+        <v>43338.604166666664</v>
+      </c>
+      <c r="F35" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G35" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="14">
+        <v>3</v>
+      </c>
+      <c r="B36" s="15">
+        <v>2092161</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="16">
+        <v>43619.543055555558</v>
+      </c>
+      <c r="E36" s="16">
+        <v>43758.504166666666</v>
+      </c>
+      <c r="F36" s="17">
         <v>0.1</v>
       </c>
-      <c r="G34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
-        <v>3</v>
-      </c>
-      <c r="B35">
-        <v>2092161</v>
-      </c>
-      <c r="C35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="1">
-        <v>43338.75</v>
-      </c>
-      <c r="E35" s="1">
-        <v>43372.542361111111</v>
-      </c>
-      <c r="F35" s="8">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
-        <v>4</v>
-      </c>
-      <c r="B36">
-        <v>2091639</v>
-      </c>
-      <c r="C36" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="1">
-        <v>43338.75</v>
-      </c>
-      <c r="E36" s="1">
-        <v>43423.527777777781</v>
-      </c>
-      <c r="F36" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G36" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
         <v>5</v>
       </c>
@@ -1920,7 +2201,7 @@
         <v>2092377</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D37" s="12">
         <v>43338.75</v>
@@ -1931,203 +2212,272 @@
       <c r="F37" s="13">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G37" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>2092351</v>
+      </c>
+      <c r="C38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>43336.604166666664</v>
+      </c>
+      <c r="E38" s="1">
+        <v>43338.604166666664</v>
+      </c>
+      <c r="F38" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G38" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>2092351</v>
+      </c>
+      <c r="C39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>43306.520833333336</v>
+      </c>
+      <c r="E39" s="1">
+        <v>43308.520833333336</v>
+      </c>
+      <c r="F39" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G39" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
         <v>6</v>
       </c>
-      <c r="B38">
+      <c r="B40" s="33">
         <v>2092350</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C40" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="34">
+        <v>43336.604166666664</v>
+      </c>
+      <c r="E40" s="34">
+        <v>43338.604166666664</v>
+      </c>
+      <c r="F40" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="G40" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="I40" s="33"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>6</v>
+      </c>
+      <c r="B41" s="33">
+        <v>2092350</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="34">
+        <v>43306.520833333336</v>
+      </c>
+      <c r="E41" s="34">
+        <v>43308.520833333336</v>
+      </c>
+      <c r="F41" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="G41" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="I41" s="33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>2092352</v>
+      </c>
+      <c r="C42" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="1">
-        <v>43338.75</v>
-      </c>
-      <c r="E38" s="1">
-        <v>43423.534722222219</v>
-      </c>
-      <c r="F38" s="8">
+      <c r="D42" s="1">
+        <v>43372.583333333336</v>
+      </c>
+      <c r="E42" s="1">
+        <v>43374.583333333336</v>
+      </c>
+      <c r="F42" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G42" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I42"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="27">
+        <v>4</v>
+      </c>
+      <c r="B43" s="28">
+        <v>2091639</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="29">
+        <v>43634.604166666664</v>
+      </c>
+      <c r="E43" s="31">
+        <v>43710.999305555553</v>
+      </c>
+      <c r="F43" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="G43" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="I43" s="28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="14">
+        <v>4</v>
+      </c>
+      <c r="B44" s="15">
+        <v>2091639</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="16">
+        <v>43618.5</v>
+      </c>
+      <c r="E44" s="16">
+        <v>43634.569444444445</v>
+      </c>
+      <c r="F44" s="17">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
-        <v>2</v>
-      </c>
-      <c r="B39">
-        <v>2092352</v>
-      </c>
-      <c r="C39" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" s="1">
-        <v>43372.583333333336</v>
-      </c>
-      <c r="E39" s="1">
-        <v>43374.583333333336</v>
-      </c>
-      <c r="F39" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="18">
+      <c r="G44" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
         <v>3</v>
       </c>
-      <c r="B40" s="19">
+      <c r="B45">
         <v>2092161</v>
       </c>
-      <c r="C40" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="20">
-        <v>43372.583333333336</v>
-      </c>
-      <c r="E40" s="20">
-        <v>43374.5625</v>
-      </c>
-      <c r="F40" s="26">
-        <v>0.1</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
-        <v>2</v>
-      </c>
-      <c r="B41">
-        <v>2092352</v>
-      </c>
-      <c r="C41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="1">
-        <v>43374.625</v>
-      </c>
-      <c r="E41" s="1">
-        <v>43423.513888888891</v>
-      </c>
-      <c r="F41" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
+      <c r="C45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="1">
+        <v>43336.604166666664</v>
+      </c>
+      <c r="E45" s="1">
+        <v>43338.604166666664</v>
+      </c>
+      <c r="F45" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G45" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I45"/>
+    </row>
+    <row r="46" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
         <v>3</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B46">
         <v>2092161</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" s="7">
-        <v>43374.625</v>
-      </c>
-      <c r="E42" s="7">
-        <v>43423.513888888891</v>
-      </c>
-      <c r="F42" s="9">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="4">
-        <v>1</v>
-      </c>
-      <c r="B43">
-        <v>2092351</v>
-      </c>
-      <c r="C43" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" s="1">
-        <v>43618.443749999999</v>
-      </c>
-      <c r="E43" s="1">
-        <v>43672.494444444441</v>
-      </c>
-      <c r="F43" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="G43" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
-        <v>2</v>
-      </c>
-      <c r="B44">
-        <v>2092352</v>
-      </c>
-      <c r="C44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="1">
-        <v>43618.5</v>
-      </c>
-      <c r="E44" s="2">
-        <v>43728.999305555553</v>
-      </c>
-      <c r="F44" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="G44" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="14">
+      <c r="C46" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="15">
-        <v>2092161</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="16">
-        <v>43619.543055555558</v>
-      </c>
-      <c r="E45" s="16">
-        <v>43758.504166666666</v>
-      </c>
-      <c r="F45" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="14">
-        <v>4</v>
-      </c>
-      <c r="B46" s="15">
-        <v>2091639</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D46" s="16">
-        <v>43618.5</v>
-      </c>
-      <c r="E46" s="16">
-        <v>43634.569444444445</v>
-      </c>
-      <c r="F46" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D46" s="1">
+        <v>43306.520833333336</v>
+      </c>
+      <c r="E46" s="1">
+        <v>43308.520833333336</v>
+      </c>
+      <c r="F46" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G46" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>5</v>
       </c>
@@ -2135,7 +2485,7 @@
         <v>2092377</v>
       </c>
       <c r="C47" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" s="1">
         <v>43619.5</v>
@@ -2146,172 +2496,221 @@
       <c r="F47" s="8">
         <v>0.5</v>
       </c>
-      <c r="G47" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="18">
+      <c r="G47" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I47" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="14">
+        <v>4</v>
+      </c>
+      <c r="B48" s="15">
+        <v>2091639</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="16">
+        <v>43306.520833333336</v>
+      </c>
+      <c r="E48" s="16">
+        <v>43308.520833333336</v>
+      </c>
+      <c r="F48" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="G48" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I48" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
+        <v>4</v>
+      </c>
+      <c r="B49">
+        <v>2091639</v>
+      </c>
+      <c r="C49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="1">
+        <v>43336.604166666664</v>
+      </c>
+      <c r="E49" s="1">
+        <v>43338.604166666664</v>
+      </c>
+      <c r="F49" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G49" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="18">
+        <v>3</v>
+      </c>
+      <c r="B50" s="19">
+        <v>2092161</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="20">
+        <v>43372.583333333336</v>
+      </c>
+      <c r="E50" s="20">
+        <v>43374.5625</v>
+      </c>
+      <c r="F50" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="G50" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="I50" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="14">
+        <v>2</v>
+      </c>
+      <c r="B51" s="15">
+        <v>2092352</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="16">
+        <v>43306.520833333336</v>
+      </c>
+      <c r="E51" s="16">
+        <v>43308.520833333336</v>
+      </c>
+      <c r="F51" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="G51" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I51" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>2</v>
+      </c>
+      <c r="B52">
+        <v>2092352</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="1">
+        <v>43336.604166666664</v>
+      </c>
+      <c r="E52" s="1">
+        <v>43338.604166666664</v>
+      </c>
+      <c r="F52" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G52" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I52"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
+        <v>3</v>
+      </c>
+      <c r="B53">
+        <v>2092161</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="1">
+        <v>43338.75</v>
+      </c>
+      <c r="E53" s="1">
+        <v>43372.542361111111</v>
+      </c>
+      <c r="F53" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="G53" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="18">
         <v>6</v>
       </c>
-      <c r="B48" s="19">
+      <c r="B54" s="19">
         <v>2092350</v>
       </c>
-      <c r="C48" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" s="20">
+      <c r="C54" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="20">
         <v>43619.515277777777</v>
       </c>
-      <c r="E48" s="20">
+      <c r="E54" s="20">
         <v>43758.46597222222</v>
       </c>
-      <c r="F48" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="G48" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="27">
-        <v>4</v>
-      </c>
-      <c r="B49" s="28">
-        <v>2091639</v>
-      </c>
-      <c r="C49" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49" s="29">
-        <v>43634.604166666664</v>
-      </c>
-      <c r="E49" s="31">
-        <v>43710.999305555553</v>
-      </c>
-      <c r="F49" s="30">
-        <v>0.05</v>
-      </c>
-      <c r="G49" s="28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
-        <v>1</v>
-      </c>
-      <c r="B50">
-        <v>2092351</v>
-      </c>
-      <c r="C50" t="s">
-        <v>32</v>
-      </c>
-      <c r="D50" s="1">
-        <v>43672.503472222219</v>
-      </c>
-      <c r="E50" s="1">
-        <v>43742.722222222219</v>
-      </c>
-      <c r="F50" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="G50" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="14">
-        <v>4</v>
-      </c>
-      <c r="B51" s="15">
-        <v>2091639</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D51" s="16">
-        <v>43711.530555555553</v>
-      </c>
-      <c r="E51" s="16">
-        <v>43758.477083333331</v>
-      </c>
-      <c r="F51" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="G51" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="22">
-        <v>2</v>
-      </c>
-      <c r="B52" s="23">
-        <v>2092352</v>
-      </c>
-      <c r="C52" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="24">
-        <v>43729.631944444445</v>
-      </c>
-      <c r="E52" s="24">
-        <v>43758.624305555553</v>
-      </c>
-      <c r="F52" s="25">
-        <v>0.05</v>
-      </c>
-      <c r="G52" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="4">
-        <v>5</v>
-      </c>
-      <c r="B53">
-        <v>2092377</v>
-      </c>
-      <c r="C53" t="s">
-        <v>16</v>
-      </c>
-      <c r="D53" s="1">
-        <v>43729.631944444445</v>
-      </c>
-      <c r="E53" s="1">
-        <v>43742.727777777778</v>
-      </c>
-      <c r="F53" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="G53" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
-        <v>1</v>
-      </c>
-      <c r="B54">
-        <v>2092351</v>
-      </c>
-      <c r="C54" t="s">
-        <v>38</v>
-      </c>
-      <c r="D54" s="1">
-        <v>43743.5</v>
-      </c>
-      <c r="E54" s="1">
-        <v>43758.384027777778</v>
-      </c>
-      <c r="F54" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="G54" t="s">
-        <v>31</v>
+      <c r="F54" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="G54" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I54" s="19" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A15:I54">
+    <sortCondition ref="C15:C54"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>